--- a/spreadsheet/apim_checklist.es.xlsx
+++ b/spreadsheet/apim_checklist.es.xlsx
@@ -1095,17 +1095,17 @@
     <row r="8" ht="16.5" customHeight="1" s="13">
       <c r="A8" s="22" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>Prácticas recomendadas</t>
+          <t>Prácticas recomendadas de desarrollo</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Utilice la función Backends para eliminar las configuraciones redundantes de backend de API</t>
+          <t>Implementar una directiva de control de errores a nivel global</t>
         </is>
       </c>
       <c r="D8" s="22" t="n"/>
@@ -1122,7 +1122,7 @@
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/api-management/backends</t>
+          <t>https://learn.microsoft.com/azure/api-management/api-management-error-handling-policies</t>
         </is>
       </c>
       <c r="I8" s="16" t="n"/>
@@ -1130,7 +1130,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>06862505-2d9a-4874-9491-2837b00a3475</t>
+          <t>d7941d4a-7b6f-458f-8714-2f8f8c059ad4</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1141,17 +1141,17 @@
     <row r="9" ht="16.5" customHeight="1" s="13">
       <c r="A9" s="22" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>Prácticas recomendadas</t>
+          <t>Prácticas recomendadas de desarrollo</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Usar valores con nombre para almacenar valores comunes que se pueden usar en directivas</t>
+          <t>Asegúrese de que todas las directivas de API incluyan un &lt;base/&gt; elemento.</t>
         </is>
       </c>
       <c r="D9" s="22" t="n"/>
@@ -1168,7 +1168,7 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/api-management/api-management-howto-properties?tabs=azure-portal</t>
+          <t>https://learn.microsoft.com/azure/api-management/set-edit-policies?tabs=form#use-base-element-to-set-policy-evaluation-order</t>
         </is>
       </c>
       <c r="I9" s="16" t="n"/>
@@ -1176,7 +1176,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>03b125d5-b69b-4739-b7fd-84b86da4933e</t>
+          <t>0b0c0765-ff37-4369-90bd-3eb23ce71b08</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1187,17 +1187,17 @@
     <row r="10" ht="16.5" customHeight="1" s="13">
       <c r="A10" s="22" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>Continuidad del negocio y recuperación ante desastres</t>
+          <t>Prácticas recomendadas de desarrollo</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Implementación en varias regiones de Azure</t>
+          <t>Usar fragmentos de directivas para evitar repetir las mismas definiciones de directivas en varias API</t>
         </is>
       </c>
       <c r="D10" s="22" t="n"/>
@@ -1214,7 +1214,7 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/api-management/api-management-howto-deploy-multi-region</t>
+          <t>https://learn.microsoft.com/azure/api-management/policy-fragments</t>
         </is>
       </c>
       <c r="I10" s="16" t="n"/>
@@ -1222,7 +1222,7 @@
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>beae759e-4ddb-4326-bf26-47f87d3454b6</t>
+          <t>a5c45b03-93b6-42fe-b16b-8fccb6a79902</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1233,17 +1233,17 @@
     <row r="11" ht="16.5" customHeight="1" s="13">
       <c r="A11" s="22" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>Continuidad del negocio y recuperación ante desastres</t>
+          <t>Monetización</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Implemente al menos dos unidades de escala distribuidas en dos zonas de disponibilidad por región para obtener la mejor disponibilidad y rendimiento</t>
+          <t>Si planeas monetizar tus API, revisa el artículo "Soporte de monetización" para conocer las prácticas recomendadas.</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
@@ -1260,7 +1260,7 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/api-management/high-availability</t>
+          <t>https://learn.microsoft.com/azure/api-management/monetization-support</t>
         </is>
       </c>
       <c r="I11" s="16" t="n"/>
@@ -1268,7 +1268,7 @@
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>9c8d1664-dd9a-49d4-bd83-950af0af4044</t>
+          <t>c3818a95-6ff3-4474-88dc-e809b46dad6a</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1279,17 +1279,17 @@
     <row r="12" ht="16.5" customHeight="1" s="13">
       <c r="A12" s="22" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>Continuidad del negocio y recuperación ante desastres</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que haya una rutina de copia de seguridad automatizada</t>
+          <t>Habilitación de la configuración de diagnóstico para exportar registros a Azure Monitor</t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
@@ -1306,7 +1306,7 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/baselines/api-management-security-baseline?toc=%2Fazure%2Fapi-management%2F&amp;bc=%2Fazure%2Fapi-management%2Fbreadcrumb%2Ftoc.json#service-native-backup-capability</t>
+          <t>https://learn.microsoft.com/azure/api-management/api-management-howto-use-azure-monitor#resource-logs</t>
         </is>
       </c>
       <c r="I12" s="16" t="n"/>
@@ -1314,7 +1314,7 @@
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>8d2db6e8-85c6-4118-a52c-ae76a4f27934</t>
+          <t>a7d0840a-c8c4-4e83-adec-5ca578eb4049</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1325,17 +1325,17 @@
     <row r="13" ht="16.5" customHeight="1" s="13">
       <c r="A13" s="22" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>Rendimiento y escalabilidad</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar una directiva de caché externa para las API que pueden beneficiarse del almacenamiento en caché</t>
+          <t>Habilitar Application Insights para una telemetría más detallada</t>
         </is>
       </c>
       <c r="D13" s="22" t="n"/>
@@ -1352,19 +1352,15 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/api-management/api-management-howto-cache-external</t>
-        </is>
-      </c>
-      <c r="I13" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/improve-api-performance-with-apim-caching-policy/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/api-management/api-management-howto-app-insights</t>
+        </is>
+      </c>
+      <c r="I13" s="16" t="n"/>
       <c r="J13" s="23" t="n"/>
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>f96ddac5-77ec-4fa9-8833-4327f052059e</t>
+          <t>8691fa38-45ed-4299-a247-fecd98d35deb</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1375,23 +1371,23 @@
     <row r="14" ht="16.5" customHeight="1" s="13">
       <c r="A14" s="22" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B14" s="22" t="inlineStr">
         <is>
-          <t>Rendimiento y escalabilidad</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>Si necesita iniciar sesión con niveles de alto rendimiento, tenga en cuenta la directiva de Centros de eventos</t>
+          <t>Configurar alertas sobre las métricas más críticas</t>
         </is>
       </c>
       <c r="D14" s="22" t="n"/>
       <c r="E14" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1402,7 +1398,7 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/api-management/api-management-howto-log-event-hubs</t>
+          <t>https://learn.microsoft.com/azure/api-management/api-management-howto-use-azure-monitor</t>
         </is>
       </c>
       <c r="I14" s="16" t="n"/>
@@ -1410,7 +1406,7 @@
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>8210699f-8d43-45c2-8f19-57e54134bd8f</t>
+          <t>55fd27bb-76ac-4a91-bc37-049e885be6b7</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1421,23 +1417,23 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>Rendimiento y escalabilidad</t>
+          <t>Protección de datos</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>Aplicar directivas de limitación para controlar el número de solicitudes por segundo</t>
+          <t>Asegúrese de que los certificados SSL personalizados se almacenan en Azure Key Vault para que se pueda acceder a ellos y actualizarlos de forma segura</t>
         </is>
       </c>
       <c r="D15" s="22" t="n"/>
       <c r="E15" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1448,19 +1444,15 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/api-management/api-management-sample-flexible-throttling</t>
-        </is>
-      </c>
-      <c r="I15" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/protect-apis-on-api-management/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/security/benchmark/azure/baselines/api-management-security-baseline?toc=%2Fazure%2Fapi-management%2F&amp;bc=%2Fazure%2Fapi-management%2Fbreadcrumb%2Ftoc.json#certificate-management-in-azure-key-vault</t>
+        </is>
+      </c>
+      <c r="I15" s="16" t="n"/>
       <c r="J15" s="23" t="n"/>
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>121bfc39-fa7b-4096-b93b-ab56c1bc0bed</t>
+          <t>39460bdb-156f-4dc2-a87f-1e8c11ab0998</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1471,23 +1463,23 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
         <is>
-          <t>Rendimiento y escalabilidad</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>Configurar el escalado automático para escalar horizontalmente el número de instancias cuando aumenta la carga</t>
+          <t>Protección de las solicitudes entrantes a las API (plano de datos) con Azure AD</t>
         </is>
       </c>
       <c r="D16" s="22" t="n"/>
       <c r="E16" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1498,7 +1490,7 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/api-management/api-management-howto-autoscale</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/baselines/api-management-security-baseline?toc=%2Fazure%2Fapi-management%2F&amp;bc=%2Fazure%2Fapi-management%2Fbreadcrumb%2Ftoc.json#azure-ad-authentication-required-for-data-plane-access</t>
         </is>
       </c>
       <c r="I16" s="16" t="n"/>
@@ -1506,7 +1498,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>bb5f356b-3daf-47a2-a9ee-867a8100bbd5</t>
+          <t>e9217997-5f6c-479d-8576-8f2adf706ec8</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1517,17 +1509,17 @@
     <row r="17" ht="16.5" customHeight="1" s="13">
       <c r="A17" s="22" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B17" s="22" t="inlineStr">
         <is>
-          <t>Rendimiento y escalabilidad</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>Implemente puertas de enlace autohospedadas donde Azure no tenga una región cercana a las API back-end.</t>
+          <t>Uso de Azure AD para autenticar usuarios en el Portal para desarrolladores</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
@@ -1544,7 +1536,7 @@
       <c r="G17" s="22" t="n"/>
       <c r="H17" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/api-management/api-management-howto-provision-self-hosted-gateway</t>
+          <t>https://learn.microsoft.com/azure/api-management/api-management-howto-aad</t>
         </is>
       </c>
       <c r="I17" s="16" t="n"/>
@@ -1552,7 +1544,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>84b94abb-59b6-4b9d-8587-3413669468e8</t>
+          <t>5e5f64ba-c90e-480e-8888-398d96cf0bfb</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1563,17 +1555,17 @@
     <row r="18" ht="16.5" customHeight="1" s="13">
       <c r="A18" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Gestión de identidades y accesos</t>
         </is>
       </c>
       <c r="B18" s="22" t="inlineStr">
         <is>
-          <t>Prácticas recomendadas de desarrollo</t>
+          <t>Acceso privilegiado</t>
         </is>
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>Implementar una directiva de control de errores a nivel global</t>
+          <t>Crear grupos adecuados para controlar la visibilidad de los productos</t>
         </is>
       </c>
       <c r="D18" s="22" t="n"/>
@@ -1590,7 +1582,7 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/api-management/api-management-error-handling-policies</t>
+          <t>https://learn.microsoft.com/azure/api-management/api-management-howto-create-groups</t>
         </is>
       </c>
       <c r="I18" s="16" t="n"/>
@@ -1598,7 +1590,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>d7941d4a-7b6f-458f-8714-2f8f8c059ad4</t>
+          <t>f8e574ce-280f-49c8-b2ef-68279b081cf3</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1609,17 +1601,17 @@
     <row r="19" ht="16.5" customHeight="1" s="13">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>Prácticas recomendadas de desarrollo</t>
+          <t>Prácticas recomendadas</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que todas las directivas de API incluyan un &lt;base/&gt; elemento.</t>
+          <t>Utilice la función Backends para eliminar las configuraciones redundantes de backend de API</t>
         </is>
       </c>
       <c r="D19" s="22" t="n"/>
@@ -1636,7 +1628,7 @@
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/api-management/set-edit-policies?tabs=form#use-base-element-to-set-policy-evaluation-order</t>
+          <t>https://learn.microsoft.com/azure/api-management/backends</t>
         </is>
       </c>
       <c r="I19" s="16" t="n"/>
@@ -1644,7 +1636,7 @@
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>0b0c0765-ff37-4369-90bd-3eb23ce71b08</t>
+          <t>06862505-2d9a-4874-9491-2837b00a3475</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1655,17 +1647,17 @@
     <row r="20" ht="16.5" customHeight="1" s="13">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>Prácticas recomendadas de desarrollo</t>
+          <t>Prácticas recomendadas</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>Usar fragmentos de directivas para evitar repetir las mismas definiciones de directivas en varias API</t>
+          <t>Usar valores con nombre para almacenar valores comunes que se pueden usar en directivas</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
@@ -1682,7 +1674,7 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/api-management/policy-fragments</t>
+          <t>https://learn.microsoft.com/azure/api-management/api-management-howto-properties?tabs=azure-portal</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1690,7 +1682,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>a5c45b03-93b6-42fe-b16b-8fccb6a79902</t>
+          <t>03b125d5-b69b-4739-b7fd-84b86da4933e</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1701,17 +1693,17 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>Monetización</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>Si planeas monetizar tus API, revisa el artículo "Soporte de monetización" para conocer las prácticas recomendadas.</t>
+          <t>Implementación en varias regiones de Azure</t>
         </is>
       </c>
       <c r="D21" s="22" t="n"/>
@@ -1728,7 +1720,7 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/api-management/monetization-support</t>
+          <t>https://learn.microsoft.com/azure/api-management/api-management-howto-deploy-multi-region</t>
         </is>
       </c>
       <c r="I21" s="16" t="n"/>
@@ -1736,7 +1728,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>c3818a95-6ff3-4474-88dc-e809b46dad6a</t>
+          <t>beae759e-4ddb-4326-bf26-47f87d3454b6</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1747,23 +1739,23 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Habilitación de la configuración de diagnóstico para exportar registros a Azure Monitor</t>
+          <t>Implemente al menos dos unidades de escala distribuidas en dos zonas de disponibilidad por región para obtener la mejor disponibilidad y rendimiento</t>
         </is>
       </c>
       <c r="D22" s="22" t="n"/>
       <c r="E22" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1774,7 +1766,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/api-management/api-management-howto-use-azure-monitor#resource-logs</t>
+          <t>https://learn.microsoft.com/azure/api-management/high-availability</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1782,7 +1774,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>a7d0840a-c8c4-4e83-adec-5ca578eb4049</t>
+          <t>9c8d1664-dd9a-49d4-bd83-950af0af4044</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1793,23 +1785,23 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Habilitar Application Insights para una telemetría más detallada</t>
+          <t>Asegúrese de que haya una rutina de copia de seguridad automatizada</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1820,7 +1812,7 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/api-management/api-management-howto-app-insights</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/baselines/api-management-security-baseline?toc=%2Fazure%2Fapi-management%2F&amp;bc=%2Fazure%2Fapi-management%2Fbreadcrumb%2Ftoc.json#service-native-backup-capability</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1828,7 +1820,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>8691fa38-45ed-4299-a247-fecd98d35deb</t>
+          <t>8d2db6e8-85c6-4118-a52c-ae76a4f27934</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1839,23 +1831,23 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Rendimiento y escalabilidad</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>Configurar alertas sobre las métricas más críticas</t>
+          <t>Considere la posibilidad de usar una directiva de caché externa para las API que pueden beneficiarse del almacenamiento en caché</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
       <c r="E24" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1866,15 +1858,19 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/api-management/api-management-howto-use-azure-monitor</t>
-        </is>
-      </c>
-      <c r="I24" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/api-management/api-management-howto-cache-external</t>
+        </is>
+      </c>
+      <c r="I24" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/improve-api-performance-with-apim-caching-policy/</t>
+        </is>
+      </c>
       <c r="J24" s="23" t="n"/>
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>55fd27bb-76ac-4a91-bc37-049e885be6b7</t>
+          <t>f96ddac5-77ec-4fa9-8833-4327f052059e</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1885,23 +1881,23 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>Protección de datos</t>
+          <t>Rendimiento y escalabilidad</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que los certificados SSL personalizados se almacenan en Azure Key Vault para que se pueda acceder a ellos y actualizarlos de forma segura</t>
+          <t>Si necesita iniciar sesión con niveles de alto rendimiento, tenga en cuenta la directiva de Centros de eventos</t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
       <c r="E25" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1912,7 +1908,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/baselines/api-management-security-baseline?toc=%2Fazure%2Fapi-management%2F&amp;bc=%2Fazure%2Fapi-management%2Fbreadcrumb%2Ftoc.json#certificate-management-in-azure-key-vault</t>
+          <t>https://learn.microsoft.com/azure/api-management/api-management-howto-log-event-hubs</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1920,7 +1916,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>39460bdb-156f-4dc2-a87f-1e8c11ab0998</t>
+          <t>8210699f-8d43-45c2-8f19-57e54134bd8f</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1931,23 +1927,23 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Rendimiento y escalabilidad</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>Protección de las solicitudes entrantes a las API (plano de datos) con Azure AD</t>
+          <t>Aplicar directivas de limitación para controlar el número de solicitudes por segundo</t>
         </is>
       </c>
       <c r="D26" s="22" t="n"/>
       <c r="E26" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1958,15 +1954,19 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/baselines/api-management-security-baseline?toc=%2Fazure%2Fapi-management%2F&amp;bc=%2Fazure%2Fapi-management%2Fbreadcrumb%2Ftoc.json#azure-ad-authentication-required-for-data-plane-access</t>
-        </is>
-      </c>
-      <c r="I26" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/api-management/api-management-sample-flexible-throttling</t>
+        </is>
+      </c>
+      <c r="I26" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/protect-apis-on-api-management/</t>
+        </is>
+      </c>
       <c r="J26" s="23" t="n"/>
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>e9217997-5f6c-479d-8576-8f2adf706ec8</t>
+          <t>121bfc39-fa7b-4096-b93b-ab56c1bc0bed</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -1977,17 +1977,17 @@
     <row r="27" ht="16.5" customHeight="1" s="13">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Rendimiento y escalabilidad</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Uso de Azure AD para autenticar usuarios en el Portal para desarrolladores</t>
+          <t>Configurar el escalado automático para escalar horizontalmente el número de instancias cuando aumenta la carga</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
@@ -2004,14 +2004,14 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/api-management/api-management-howto-aad</t>
+          <t>https://learn.microsoft.com/azure/api-management/api-management-howto-autoscale</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>5e5f64ba-c90e-480e-8888-398d96cf0bfb</t>
+          <t>bb5f356b-3daf-47a2-a9ee-867a8100bbd5</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2022,17 +2022,17 @@
     <row r="28" ht="16.5" customHeight="1" s="13">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>Gestión de identidades y accesos</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>Acceso privilegiado</t>
+          <t>Rendimiento y escalabilidad</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Crear grupos adecuados para controlar la visibilidad de los productos</t>
+          <t>Implemente puertas de enlace autohospedadas donde Azure no tenga una región cercana a las API back-end.</t>
         </is>
       </c>
       <c r="D28" s="22" t="n"/>
@@ -2049,14 +2049,14 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/api-management/api-management-howto-create-groups</t>
+          <t>https://learn.microsoft.com/azure/api-management/api-management-howto-provision-self-hosted-gateway</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>f8e574ce-280f-49c8-b2ef-68279b081cf3</t>
+          <t>84b94abb-59b6-4b9d-8587-3413669468e8</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2072,12 +2072,12 @@
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Conectividad</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Implementar el servicio dentro de una red virtual (VNET)</t>
+          <t>Uso de Azure Front Door para la implementación en varias regiones</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
@@ -2094,14 +2094,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/baselines/api-management-security-baseline?toc=%2Fazure%2Fapi-management%2F&amp;bc=%2Fazure%2Fapi-management%2Fbreadcrumb%2Ftoc.json#virtual-network-integration</t>
+          <t>https://learn.microsoft.com/en-us/azure/api-management/front-door-api-management</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>cd45c90e-7690-4753-930b-bf290c69c074</t>
+          <t>7519e385-a88b-4d34-966b-6269d686e890</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2122,7 +2122,7 @@
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Implementar grupos de seguridad de red (NSG) en las subredes para restringir o supervisar el tráfico</t>
+          <t>Implementar el servicio dentro de una red virtual (VNET)</t>
         </is>
       </c>
       <c r="D30" s="22" t="n"/>
@@ -2139,14 +2139,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/baselines/api-management-security-baseline?toc=%2Fazure%2Fapi-management%2F&amp;bc=%2Fazure%2Fapi-management%2Fbreadcrumb%2Ftoc.json#network-security-group-support</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/baselines/api-management-security-baseline?toc=%2Fazure%2Fapi-management%2F&amp;bc=%2Fazure%2Fapi-management%2Fbreadcrumb%2Ftoc.json#virtual-network-integration</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>02661582-b3d1-48d1-9d7b-c6a918a0ca33</t>
+          <t>cd45c90e-7690-4753-930b-bf290c69c074</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Implementar extremos privados para filtrar el tráfico entrante cuando no se usa la red virtual</t>
+          <t>Implementar grupos de seguridad de red (NSG) en las subredes para restringir o supervisar el tráfico</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
@@ -2184,14 +2184,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/baselines/api-management-security-baseline?toc=%2Fazure%2Fapi-management%2F&amp;bc=%2Fazure%2Fapi-management%2Fbreadcrumb%2Ftoc.json#azure-private-link</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/baselines/api-management-security-baseline?toc=%2Fazure%2Fapi-management%2F&amp;bc=%2Fazure%2Fapi-management%2Fbreadcrumb%2Ftoc.json#network-security-group-support</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>67437a28-2721-4a2c-becd-caa54c8237a5</t>
+          <t>02661582-b3d1-48d1-9d7b-c6a918a0ca33</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2212,13 +2212,13 @@
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Deshabilitar el acceso a la red pública</t>
+          <t>Implementar extremos privados para filtrar el tráfico entrante cuando no se usa la red virtual</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
       <c r="E32" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2229,7 +2229,7 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/baselines/api-management-security-baseline?toc=%2Fazure%2Fapi-management%2F&amp;bc=%2Fazure%2Fapi-management%2Fbreadcrumb%2Ftoc.json#disable-public-network-access</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/baselines/api-management-security-baseline?toc=%2Fazure%2Fapi-management%2F&amp;bc=%2Fazure%2Fapi-management%2Fbreadcrumb%2Ftoc.json#azure-private-link</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2237,7 +2237,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>d698adbd-3288-44cb-b10a-9b572da395ae</t>
+          <t>67437a28-2721-4a2c-becd-caa54c8237a5</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2253,18 +2253,18 @@
       </c>
       <c r="B33" s="22" t="inlineStr">
         <is>
-          <t>Conectividad</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Uso de Azure Front Door para la implementación en varias regiones</t>
+          <t>Deshabilitar el acceso a la red pública</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
       <c r="E33" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2275,7 +2275,7 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/api-management/front-door-api-management</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/baselines/api-management-security-baseline?toc=%2Fazure%2Fapi-management%2F&amp;bc=%2Fazure%2Fapi-management%2Fbreadcrumb%2Ftoc.json#disable-public-network-access</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2283,7 +2283,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>7519e385-a88b-4d34-966b-6269d686e890</t>
+          <t>d698adbd-3288-44cb-b10a-9b572da395ae</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2789,7 +2789,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>5e5f64ba-c90e-480e-8888-398d96cf0bfb</t>
+          <t>791abd8b-7706-4e31-9569-afefde724be3</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -11479,7 +11479,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11563,7 +11563,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11620,43 +11620,43 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F46" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F46" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
